--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Efna5-Ephb2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Efna5-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.79180472650951</v>
+        <v>0.230855</v>
       </c>
       <c r="H2">
-        <v>2.79180472650951</v>
+        <v>0.692565</v>
       </c>
       <c r="I2">
-        <v>0.8528760338530638</v>
+        <v>0.06377305075821572</v>
       </c>
       <c r="J2">
-        <v>0.8528760338530638</v>
+        <v>0.06377305075821572</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.34034842799346</v>
+        <v>6.346253666666667</v>
       </c>
       <c r="N2">
-        <v>6.34034842799346</v>
+        <v>19.038761</v>
       </c>
       <c r="O2">
-        <v>0.9502214088217007</v>
+        <v>0.9446330608455225</v>
       </c>
       <c r="P2">
-        <v>0.9502214088217007</v>
+        <v>0.9446330608455226</v>
       </c>
       <c r="Q2">
-        <v>17.70101470898928</v>
+        <v>1.465064390218333</v>
       </c>
       <c r="R2">
-        <v>17.70101470898928</v>
+        <v>13.185579511965</v>
       </c>
       <c r="S2">
-        <v>0.8104210664381227</v>
+        <v>0.06024213213719019</v>
       </c>
       <c r="T2">
-        <v>0.8104210664381227</v>
+        <v>0.06024213213719019</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.79180472650951</v>
+        <v>0.230855</v>
       </c>
       <c r="H3">
-        <v>2.79180472650951</v>
+        <v>0.692565</v>
       </c>
       <c r="I3">
-        <v>0.8528760338530638</v>
+        <v>0.06377305075821572</v>
       </c>
       <c r="J3">
-        <v>0.8528760338530638</v>
+        <v>0.06377305075821572</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.332147444158755</v>
+        <v>0.3719673333333333</v>
       </c>
       <c r="N3">
-        <v>0.332147444158755</v>
+        <v>1.115902</v>
       </c>
       <c r="O3">
-        <v>0.04977859117829934</v>
+        <v>0.05536693915447755</v>
       </c>
       <c r="P3">
-        <v>0.04977859117829934</v>
+        <v>0.05536693915447755</v>
       </c>
       <c r="Q3">
-        <v>0.9272908045004657</v>
+        <v>0.08587051873666667</v>
       </c>
       <c r="R3">
-        <v>0.9272908045004657</v>
+        <v>0.7728346686299999</v>
       </c>
       <c r="S3">
-        <v>0.04245496741494105</v>
+        <v>0.003530918621025538</v>
       </c>
       <c r="T3">
-        <v>0.04245496741494105</v>
+        <v>0.003530918621025538</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,61 +643,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.48159564551981</v>
+        <v>2.900731333333333</v>
       </c>
       <c r="H4">
-        <v>0.48159564551981</v>
+        <v>8.702194</v>
       </c>
       <c r="I4">
-        <v>0.1471239661469362</v>
+        <v>0.8013189515350044</v>
       </c>
       <c r="J4">
-        <v>0.1471239661469362</v>
+        <v>0.8013189515350045</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.34034842799346</v>
+        <v>6.346253666666667</v>
       </c>
       <c r="N4">
-        <v>6.34034842799346</v>
+        <v>19.038761</v>
       </c>
       <c r="O4">
-        <v>0.9502214088217007</v>
+        <v>0.9446330608455225</v>
       </c>
       <c r="P4">
-        <v>0.9502214088217007</v>
+        <v>0.9446330608455226</v>
       </c>
       <c r="Q4">
-        <v>3.053484194000023</v>
+        <v>18.40877686018155</v>
       </c>
       <c r="R4">
-        <v>3.053484194000023</v>
+        <v>165.678991741634</v>
       </c>
       <c r="S4">
-        <v>0.1398003423835779</v>
+        <v>0.7569523739020361</v>
       </c>
       <c r="T4">
-        <v>0.1398003423835779</v>
+        <v>0.7569523739020363</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,185 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.900731333333333</v>
+      </c>
+      <c r="H5">
+        <v>8.702194</v>
+      </c>
+      <c r="I5">
+        <v>0.8013189515350044</v>
+      </c>
+      <c r="J5">
+        <v>0.8013189515350045</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.3719673333333333</v>
+      </c>
+      <c r="N5">
+        <v>1.115902</v>
+      </c>
+      <c r="O5">
+        <v>0.05536693915447755</v>
+      </c>
+      <c r="P5">
+        <v>0.05536693915447755</v>
+      </c>
+      <c r="Q5">
+        <v>1.078977298776444</v>
+      </c>
+      <c r="R5">
+        <v>9.710795688988</v>
+      </c>
+      <c r="S5">
+        <v>0.04436657763296833</v>
+      </c>
+      <c r="T5">
+        <v>0.04436657763296834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.48159564551981</v>
-      </c>
-      <c r="H5">
-        <v>0.48159564551981</v>
-      </c>
-      <c r="I5">
-        <v>0.1471239661469362</v>
-      </c>
-      <c r="J5">
-        <v>0.1471239661469362</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.332147444158755</v>
-      </c>
-      <c r="N5">
-        <v>0.332147444158755</v>
-      </c>
-      <c r="O5">
-        <v>0.04977859117829934</v>
-      </c>
-      <c r="P5">
-        <v>0.04977859117829934</v>
-      </c>
-      <c r="Q5">
-        <v>0.1599607627773907</v>
-      </c>
-      <c r="R5">
-        <v>0.1599607627773907</v>
-      </c>
-      <c r="S5">
-        <v>0.007323623763358288</v>
-      </c>
-      <c r="T5">
-        <v>0.007323623763358288</v>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.4883596666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.465079</v>
+      </c>
+      <c r="I6">
+        <v>0.1349079977067798</v>
+      </c>
+      <c r="J6">
+        <v>0.1349079977067798</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>6.346253666666667</v>
+      </c>
+      <c r="N6">
+        <v>19.038761</v>
+      </c>
+      <c r="O6">
+        <v>0.9446330608455225</v>
+      </c>
+      <c r="P6">
+        <v>0.9446330608455226</v>
+      </c>
+      <c r="Q6">
+        <v>3.099254325235445</v>
+      </c>
+      <c r="R6">
+        <v>27.893288927119</v>
+      </c>
+      <c r="S6">
+        <v>0.1274385548062961</v>
+      </c>
+      <c r="T6">
+        <v>0.1274385548062962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.4883596666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.465079</v>
+      </c>
+      <c r="I7">
+        <v>0.1349079977067798</v>
+      </c>
+      <c r="J7">
+        <v>0.1349079977067798</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.3719673333333333</v>
+      </c>
+      <c r="N7">
+        <v>1.115902</v>
+      </c>
+      <c r="O7">
+        <v>0.05536693915447755</v>
+      </c>
+      <c r="P7">
+        <v>0.05536693915447755</v>
+      </c>
+      <c r="Q7">
+        <v>0.1816538429175556</v>
+      </c>
+      <c r="R7">
+        <v>1.634884586258</v>
+      </c>
+      <c r="S7">
+        <v>0.007469442900483674</v>
+      </c>
+      <c r="T7">
+        <v>0.007469442900483674</v>
       </c>
     </row>
   </sheetData>
